--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t xml:space="preserve">usuario_id</t>
   </si>
@@ -195,6 +195,60 @@
   </si>
   <si>
     <t xml:space="preserve">id_song</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soul For Us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflections Of Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dance With Her Own</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troubles Of My Inner Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Fireworks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Circus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honey, So Do I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweetie, Let's Go Wild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She Knows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantasy For Me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celebration Of More</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock His Everything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Forever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diamond Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honey, Let's Be Silly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thang Of Thunder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Words Of Her Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without My Streets</t>
   </si>
 </sst>
 </file>
@@ -205,7 +259,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -247,6 +301,16 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -393,7 +457,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -520,6 +584,18 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -602,7 +678,7 @@
   <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -815,7 +891,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="11" t="n">
         <v>2</v>
       </c>
@@ -907,17 +983,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:P21"/>
+  <dimension ref="B2:P30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.58"/>
@@ -1039,7 +1115,10 @@
       <c r="M5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="N5" s="28"/>
+      <c r="N5" s="28" t="n">
+        <f aca="false">2020-23</f>
+        <v>1997</v>
+      </c>
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
     </row>
@@ -1074,7 +1153,10 @@
       <c r="M6" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="N6" s="28"/>
+      <c r="N6" s="28" t="n">
+        <f aca="false">2020-35</f>
+        <v>1985</v>
+      </c>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
     </row>
@@ -1103,7 +1185,10 @@
       <c r="M7" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="N7" s="28"/>
+      <c r="N7" s="28" t="n">
+        <f aca="false">2020-20</f>
+        <v>2000</v>
+      </c>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
     </row>
@@ -1128,7 +1213,10 @@
       <c r="M8" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="N8" s="28"/>
+      <c r="N8" s="28" t="n">
+        <f aca="false">2020-45</f>
+        <v>1975</v>
+      </c>
       <c r="O8" s="28"/>
       <c r="P8" s="28"/>
     </row>
@@ -1237,21 +1325,37 @@
       <c r="C13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="E13" s="28"/>
       <c r="F13" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="G13" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
+      <c r="K13" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="M13" s="28"/>
       <c r="N13" s="28"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
+      <c r="O13" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="31" t="n">
@@ -1260,21 +1364,37 @@
       <c r="C14" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="E14" s="28"/>
       <c r="F14" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="G14" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
+      <c r="K14" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="29" t="n">
+        <v>3</v>
+      </c>
       <c r="M14" s="28"/>
       <c r="N14" s="28"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
+      <c r="O14" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="31" t="n">
@@ -1283,21 +1403,37 @@
       <c r="C15" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="29" t="n">
+        <v>2</v>
+      </c>
       <c r="E15" s="28"/>
       <c r="F15" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="G15" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="J15" s="28"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
+      <c r="K15" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="29" t="n">
+        <v>4</v>
+      </c>
       <c r="M15" s="28"/>
       <c r="N15" s="28"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
+      <c r="O15" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="29" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="31" t="n">
@@ -1306,21 +1442,37 @@
       <c r="C16" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="29"/>
+      <c r="D16" s="29" t="n">
+        <v>3</v>
+      </c>
       <c r="E16" s="28"/>
       <c r="F16" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="G16" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="29" t="n">
+        <v>2</v>
+      </c>
       <c r="J16" s="28"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
+      <c r="K16" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="M16" s="28"/>
       <c r="N16" s="28"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
+      <c r="O16" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="29" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="31" t="n">
@@ -1329,87 +1481,325 @@
       <c r="C17" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="29" t="n">
+        <v>4</v>
+      </c>
       <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="F17" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="29" t="n">
+        <v>2</v>
+      </c>
       <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
+      <c r="K17" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" s="29" t="n">
+        <v>3</v>
+      </c>
       <c r="M17" s="28"/>
       <c r="N17" s="28"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
+      <c r="O17" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" s="29" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="F18" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="29" t="n">
+        <v>3</v>
+      </c>
       <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
+      <c r="K18" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="M18" s="28"/>
       <c r="N18" s="28"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
+      <c r="O18" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" s="29" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="F19" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="29" t="n">
+        <v>3</v>
+      </c>
       <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
+      <c r="K19" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" s="29" t="n">
+        <v>2</v>
+      </c>
       <c r="M19" s="28"/>
       <c r="N19" s="28"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
+      <c r="O19" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" s="29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="F20" s="29" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="29" t="n">
+        <v>3</v>
+      </c>
       <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
+      <c r="K20" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="L20" s="29" t="n">
+        <v>4</v>
+      </c>
       <c r="M20" s="28"/>
       <c r="N20" s="28"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
+      <c r="O20" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" s="29" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="F21" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="29" t="n">
+        <v>3</v>
+      </c>
       <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
       <c r="M21" s="28"/>
       <c r="N21" s="28"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
+      <c r="O21" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" s="29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="O22" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" s="29" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="29" t="n">
+        <v>11</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="O23" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="P23" s="29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="29" t="n">
+        <v>12</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="O24" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="P24" s="29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="29" t="n">
+        <v>13</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="O25" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="P25" s="29" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="29" t="n">
+        <v>14</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="P26" s="29" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="29" t="n">
+        <v>15</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" s="29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="29" t="n">
+        <v>16</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" s="29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="29" t="n">
+        <v>17</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" s="29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="29" t="n">
+        <v>18</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I30" s="29" t="n">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -259,7 +259,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -301,16 +301,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -457,7 +447,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -586,16 +576,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -986,10 +972,10 @@
   <dimension ref="B2:P30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="topLeft" activeCell="P14" activeCellId="0" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.55"/>
@@ -1393,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1763,7 +1749,7 @@
       <c r="F28" s="29" t="n">
         <v>16</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="29" t="s">
         <v>73</v>
       </c>
       <c r="H28" s="29" t="n">
@@ -1777,7 +1763,7 @@
       <c r="F29" s="29" t="n">
         <v>17</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="29" t="s">
         <v>74</v>
       </c>
       <c r="H29" s="29" t="n">
@@ -1791,7 +1777,7 @@
       <c r="F30" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G30" s="29" t="s">
         <v>75</v>
       </c>
       <c r="H30" s="29" t="n">

--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -143,73 +143,73 @@
     <t xml:space="preserve">plan</t>
   </si>
   <si>
+    <t xml:space="preserve">user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">follow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brith_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_artist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">álbum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">song</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_album</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soul For Us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflections Of Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dance With Her Own</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playback_history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troubles Of My Inner Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_song</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Fireworks</t>
+  </si>
+  <si>
     <t xml:space="preserve">artist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brith_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">álbum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">song</t>
-  </si>
-  <si>
-    <t xml:space="preserve">follow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">playback_history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_artist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_album</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_song</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soul For Us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reflections Of Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dance With Her Own</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troubles Of My Inner Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Fireworks</t>
   </si>
   <si>
     <t xml:space="preserve">Magic Circus</t>
@@ -255,9 +255,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -447,7 +448,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -572,16 +573,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -969,18 +978,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:P30"/>
+  <dimension ref="B2:P43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P14" activeCellId="0" sqref="P14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.58"/>
   </cols>
@@ -996,43 +1009,44 @@
         <v>40</v>
       </c>
       <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="K2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="25"/>
       <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
       <c r="P2" s="26"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+        <v>43</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="P3" s="28"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1043,31 +1057,28 @@
         <v>8</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="29" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+        <v>7</v>
+      </c>
+      <c r="H4" s="31" t="n">
+        <f aca="false">2020-23</f>
+        <v>1997</v>
+      </c>
+      <c r="I4" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="P4" s="28"/>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1077,35 +1088,29 @@
       <c r="C5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>48</v>
+      <c r="D5" s="32" t="s">
+        <v>50</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="29" t="n">
         <v>2</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="31" t="n">
-        <v>23</v>
-      </c>
-      <c r="M5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="28" t="n">
-        <f aca="false">2020-23</f>
-        <v>1997</v>
-      </c>
-      <c r="O5" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="H5" s="31" t="n">
+        <f aca="false">2020-35</f>
+        <v>1985</v>
+      </c>
+      <c r="I5" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="29" t="n">
+        <v>3</v>
+      </c>
       <c r="P5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,400 +1120,355 @@
       <c r="C6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>49</v>
+      <c r="D6" s="32" t="s">
+        <v>51</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="29" t="n">
         <v>3</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="31" t="n">
-        <v>35</v>
-      </c>
-      <c r="M6" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" s="28" t="n">
-        <f aca="false">2020-35</f>
-        <v>1985</v>
-      </c>
-      <c r="O6" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="H6" s="31" t="n">
+        <f aca="false">2020-20</f>
+        <v>2000</v>
+      </c>
+      <c r="I6" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="29" t="n">
+        <v>4</v>
+      </c>
       <c r="P6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="28"/>
       <c r="F7" s="29" t="n">
         <v>4</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="31" t="n">
-        <v>20</v>
-      </c>
-      <c r="M7" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" s="28" t="n">
-        <f aca="false">2020-20</f>
-        <v>2000</v>
-      </c>
-      <c r="O7" s="28"/>
+        <v>19</v>
+      </c>
+      <c r="H7" s="31" t="n">
+        <f aca="false">2020-45</f>
+        <v>1975</v>
+      </c>
+      <c r="I7" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="P7" s="28"/>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="31" t="n">
-        <v>45</v>
-      </c>
-      <c r="M8" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="28" t="n">
-        <f aca="false">2020-45</f>
-        <v>1975</v>
-      </c>
-      <c r="O8" s="28"/>
+      <c r="K8" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" s="29" t="n">
+        <v>3</v>
+      </c>
       <c r="P8" s="28"/>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="F9" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="K9" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
       <c r="P9" s="28"/>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="B10" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="F10" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>54</v>
+      </c>
       <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+      <c r="K10" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" s="29" t="n">
+        <v>2</v>
+      </c>
       <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
       <c r="P10" s="28"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="E11" s="28"/>
-      <c r="F11" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="F11" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="J11" s="28"/>
-      <c r="K11" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="25"/>
+      <c r="K11" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" s="29" t="n">
+        <v>4</v>
+      </c>
       <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>54</v>
+      <c r="B12" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="29" t="n">
+        <v>2</v>
       </c>
       <c r="E12" s="28"/>
-      <c r="F12" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>55</v>
+      <c r="F12" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="29" t="n">
+        <v>1</v>
       </c>
       <c r="J12" s="28"/>
-      <c r="K12" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>54</v>
-      </c>
       <c r="M12" s="28"/>
       <c r="N12" s="28"/>
-      <c r="O12" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="P12" s="27" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="31" t="n">
-        <v>1</v>
+      <c r="B13" s="32" t="n">
+        <v>4</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D13" s="29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="29" t="n">
-        <v>1</v>
-      </c>
+      <c r="L13" s="25"/>
       <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="29" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="31" t="n">
-        <v>2</v>
+      <c r="B14" s="32" t="n">
+        <v>5</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D14" s="29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
         <v>59</v>
       </c>
       <c r="H14" s="29" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="28"/>
-      <c r="K14" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="29" t="n">
-        <v>3</v>
+      <c r="K14" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="29" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="29" t="n">
-        <v>2</v>
-      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>60</v>
+        <v>5</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>61</v>
       </c>
       <c r="H15" s="29" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="28"/>
       <c r="K15" s="29" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="29" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="29" t="n">
-        <v>3</v>
-      </c>
+      <c r="B16" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="28"/>
       <c r="F16" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>61</v>
+        <v>6</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>63</v>
       </c>
       <c r="H16" s="29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" s="29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="29" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="31" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="29" t="n">
-        <v>4</v>
-      </c>
+      <c r="B17" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="35"/>
       <c r="E17" s="28"/>
       <c r="F17" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>62</v>
+        <v>7</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="H17" s="29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" s="28"/>
       <c r="K17" s="29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" s="29" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="P17" s="29" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="B18" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="30"/>
       <c r="E18" s="28"/>
       <c r="F18" s="29" t="n">
-        <v>6</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>63</v>
+        <v>8</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>65</v>
       </c>
       <c r="H18" s="29" t="n">
         <v>2</v>
@@ -1518,30 +1478,27 @@
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18" s="29" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="P18" s="29" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="B19" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="30"/>
       <c r="E19" s="28"/>
       <c r="F19" s="29" t="n">
-        <v>7</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>64</v>
+        <v>9</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="H19" s="29" t="n">
         <v>2</v>
@@ -1551,88 +1508,79 @@
       </c>
       <c r="J19" s="28"/>
       <c r="K19" s="29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19" s="29" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="P19" s="29" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="B20" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="30"/>
       <c r="E20" s="28"/>
       <c r="F20" s="29" t="n">
-        <v>8</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>65</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="H20" s="29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" s="29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L20" s="29" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="P20" s="29" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+      <c r="B21" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="30"/>
       <c r="E21" s="28"/>
       <c r="F21" s="29" t="n">
-        <v>9</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>66</v>
+        <v>11</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="H21" s="29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" s="29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
+      <c r="K21" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" s="29" t="n">
+        <v>2</v>
+      </c>
       <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="P21" s="29" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H22" s="29" t="n">
         <v>3</v>
@@ -1640,21 +1588,19 @@
       <c r="I22" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="O22" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="P22" s="29" t="n">
-        <v>16</v>
+      <c r="K22" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" s="29" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H23" s="29" t="n">
         <v>3</v>
@@ -1662,21 +1608,19 @@
       <c r="I23" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="O23" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="P23" s="29" t="n">
-        <v>6</v>
+      <c r="K23" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" s="29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H24" s="29" t="n">
         <v>3</v>
@@ -1684,19 +1628,19 @@
       <c r="I24" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="O24" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="P24" s="29" t="n">
-        <v>3</v>
+      <c r="K24" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" s="29" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H25" s="29" t="n">
         <v>3</v>
@@ -1704,53 +1648,59 @@
       <c r="I25" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="O25" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="P25" s="29" t="n">
-        <v>18</v>
+      <c r="K25" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" s="29" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H26" s="29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="O26" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="P26" s="29" t="n">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="K26" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="L26" s="29" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H27" s="29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I27" s="29" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="K27" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" s="29" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H28" s="29" t="n">
         <v>4</v>
@@ -1758,44 +1708,42 @@
       <c r="I28" s="29" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="29" t="n">
-        <v>17</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="I29" s="29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="29" t="n">
-        <v>18</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="I30" s="29" t="n">
-        <v>5</v>
-      </c>
-    </row>
+      <c r="K28" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="L28" s="29" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="12">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
